--- a/src/analysis_examples/circadb/results_jtk/cosinor_10466779_pip5k1b_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10466779_pip5k1b_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2829877276324321, 0.43972832234395864]</t>
+          <t>[0.28447786468839725, 0.43823818528799346]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.020010990757328e-09</v>
+        <v>2.882857730313049e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>4.020010990757328e-09</v>
+        <v>2.882857730313049e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.081789662497386</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.42809621939176085, 0.5121182552055161]</t>
+          <t>[0.42805775854323425, 0.5121567160540428]</t>
         </is>
       </c>
       <c r="U2" t="n">
